--- a/biology/Zoologie/Calligrapha_suturella/Calligrapha_suturella.xlsx
+++ b/biology/Zoologie/Calligrapha_suturella/Calligrapha_suturella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calligrapha suturella est une espèce de coléoptères de la famille des Chrysomelidae, un insecte phytophage qui se rencontre dans le Nord-Est de l'Amérique du Nord et qui peut atteindre de 8 à 9 mm de long.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Calligrapha suturella a été initialement décrite en 1933 par Charles Schaeffer comme étant une variété de l'espèce Calligrapha multipunctata, sous le protonyme de Calligrapha multipunctata var. suturella[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Calligrapha suturella a été initialement décrite en 1933 par Charles Schaeffer comme étant une variété de l'espèce Calligrapha multipunctata, sous le protonyme de Calligrapha multipunctata var. suturella
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La livrée de Calligrapha suturella est blanc jaunâtre, à ornementation noire. Son pronotum est large, noir luisant, finement ponctué, la partie frontale légèrement déprimée et la pointe postérieure triangulaire. Ses élytres sont ornés au centre d'une bande longitudinale à cinq lobes, et maculés sur ses flancs de vingt à trente taches noires de forme très variable.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique du Nord, il se rencontre depuis le Québec au New Hampshire jusqu'aux Grands Lacs.
 </t>
@@ -604,7 +622,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Calligrapha suturella s'alimente des feuilles de plusieurs espèces de Saules.
 </t>
